--- a/tools/conservify.xlsx
+++ b/tools/conservify.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>refs</t>
   </si>
@@ -47,6 +47,9 @@
     <t>price1000</t>
   </si>
   <si>
+    <t>fk-weather.sch</t>
+  </si>
+  <si>
     <t>Capacitors_SMD:C_0603_HandSoldering</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>mouser</t>
   </si>
   <si>
+    <t>fk-weather.sch,fk-atlas.sch</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>581-0603YD105K</t>
   </si>
   <si>
+    <t>fk-atlas.sch</t>
+  </si>
+  <si>
+    <t>1uF 50V X5R</t>
+  </si>
+  <si>
     <t>22pF</t>
   </si>
   <si>
@@ -110,6 +122,12 @@
     <t>80-C0603C472K9R</t>
   </si>
   <si>
+    <t>4.7nF 25V X7R</t>
+  </si>
+  <si>
+    <t>603-AC603KRX7R8BB472</t>
+  </si>
+  <si>
     <t>4.7uF</t>
   </si>
   <si>
@@ -128,6 +146,9 @@
     <t>985-TSL25911FN</t>
   </si>
   <si>
+    <t>fk-core.sch</t>
+  </si>
+  <si>
     <t>Housings_DFN_QFN:DFN-8-1EP_3x2mm_Pitch0.5mm</t>
   </si>
   <si>
@@ -146,6 +167,27 @@
     <t>403-SHT31-DIS-B</t>
   </si>
   <si>
+    <t>LEDs:LED_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>859-LTST-C191TBKT</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KFKT</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KSKT</t>
+  </si>
+  <si>
     <t>Resistors_SMD:R_0603_HandSoldering</t>
   </si>
   <si>
@@ -155,12 +197,15 @@
     <t>603-RC0603FR-071K5L</t>
   </si>
   <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07100KL</t>
+  </si>
+  <si>
     <t>100k</t>
   </si>
   <si>
-    <t>603-RC0603FR-07100KL</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -188,12 +233,15 @@
     <t>603-RC0603FR-0722KL</t>
   </si>
   <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-072K2L</t>
+  </si>
+  <si>
     <t>2k2</t>
   </si>
   <si>
-    <t>603-RC0603FR-072K2L</t>
-  </si>
-  <si>
     <t>330R</t>
   </si>
   <si>
@@ -212,6 +260,9 @@
     <t>710-742792641</t>
   </si>
   <si>
+    <t>fk-core.sch,fk-weather.sch,fk-atlas.sch</t>
+  </si>
+  <si>
     <t>RocketScreamKicadLibrary:ABS07</t>
   </si>
   <si>
@@ -230,15 +281,6 @@
     <t>581-0603YC103K4T2A</t>
   </si>
   <si>
-    <t>1uF 50V X5R</t>
-  </si>
-  <si>
-    <t>4.7nF 25V X7R</t>
-  </si>
-  <si>
-    <t>603-AC603KRX7R8BB472</t>
-  </si>
-  <si>
     <t>47uF 10V X5R</t>
   </si>
   <si>
@@ -257,6 +299,9 @@
     <t>CONN-HDR-1x19</t>
   </si>
   <si>
+    <t>fk-core.sch,fk-weather.sch</t>
+  </si>
+  <si>
     <t>RocketScreamKicadLibrary:HOLE_NPTH_2.2MM</t>
   </si>
   <si>
@@ -278,36 +323,18 @@
     <t>RocketScreamKicadLibrary:LED-0603</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>859-LTST-C191TBKT</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
     <t>859-LTST-C190KGKT</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KFKT</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
     <t>859-LTST-C190KRKT</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KSKT</t>
-  </si>
-  <si>
     <t>RocketScreamKicadLibrary:MF-PSMF020X</t>
   </si>
   <si>
@@ -317,6 +344,9 @@
     <t>652-MF-PSMF050X-2</t>
   </si>
   <si>
+    <t>fk-core.sch,fk-atlas.sch</t>
+  </si>
+  <si>
     <t>RocketScreamKicadLibrary:MICRO-USB</t>
   </si>
   <si>
@@ -338,9 +368,6 @@
     <t>RocketScreamKicadLibrary:RES-0603</t>
   </si>
   <si>
-    <t>100K</t>
-  </si>
-  <si>
     <t>180R</t>
   </si>
   <si>
@@ -353,9 +380,6 @@
     <t>667-ERJ-PA3F1181V</t>
   </si>
   <si>
-    <t>2K2</t>
-  </si>
-  <si>
     <t>2K94</t>
   </si>
   <si>
@@ -881,37 +905,37 @@
     <t>C603,C601,C604,C401,C403,C404,C203,C201,C204,C501,C503,C504,C304,C303,C301</t>
   </si>
   <si>
+    <t>C9,C8,C2,C7,C5</t>
+  </si>
+  <si>
+    <t>C602,C606,C605,C402,C405,C406,C206,C205,C202,C502,C505,C506,C306,C305,C302</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>C6,C15,C14</t>
+  </si>
+  <si>
+    <t>C1,C12,C10</t>
+  </si>
+  <si>
+    <t>D4,D1</t>
+  </si>
+  <si>
     <t>R401,R301,R302,R504,R502,R501,R602,R202,R201,R204,R304,R404,R604,R601,R402</t>
   </si>
   <si>
-    <t>C602,C606,C605,C402,C405,C406,C206,C205,C202,C502,C505,C506,C306,C305,C302</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R6,R7,R3,R11</t>
   </si>
   <si>
     <t>R4,R5,R303,R305,R505,R503,R203,R205,R405,R403,R605,R603</t>
-  </si>
-  <si>
-    <t>C9,C8,C2,C7,C5</t>
-  </si>
-  <si>
-    <t>C3,C4</t>
-  </si>
-  <si>
-    <t>C6,C15,C14</t>
-  </si>
-  <si>
-    <t>C1,C12,C10</t>
-  </si>
-  <si>
-    <t>D4,D1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R6,R7,R3,R11</t>
   </si>
   <si>
     <t>D5</t>
@@ -1274,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,18 +1336,20 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s"/>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -1339,21 +1365,23 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -1366,21 +1394,23 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>0.1</v>
@@ -1393,18 +1423,20 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1420,21 +1452,23 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s"/>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>0.17</v>
@@ -1447,21 +1481,23 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
@@ -1474,18 +1510,20 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -1501,21 +1539,23 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -1528,169 +1568,183 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s"/>
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.021</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s"/>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.71</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>0.331</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>0.208</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.331</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s"/>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s"/>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s"/>
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1701,172 +1755,182 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
         <v>5.81</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>3.39</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>2.96</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s"/>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s"/>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s"/>
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="H19" t="n">
-        <v>0.021</v>
+        <v>0.129</v>
       </c>
       <c r="I19" t="n">
-        <v>0.012</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s"/>
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="H20" t="n">
-        <v>0.021</v>
+        <v>0.065</v>
       </c>
       <c r="I20" t="n">
-        <v>0.012</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s"/>
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0.473</v>
+        <v>0.074</v>
       </c>
       <c r="I21" t="n">
-        <v>0.321</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s"/>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1879,21 +1943,23 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s"/>
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
         <v>0.1</v>
@@ -1906,18 +1972,20 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s"/>
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1933,21 +2001,23 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s"/>
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0.1</v>
@@ -1960,21 +2030,23 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" t="s"/>
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>0.1</v>
@@ -1989,100 +2061,106 @@
     <row r="27" spans="1:9">
       <c r="A27" t="s"/>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s"/>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.173</v>
+        <v>0.021</v>
       </c>
       <c r="I28" t="n">
-        <v>0.15</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s"/>
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.36</v>
+        <v>0.021</v>
       </c>
       <c r="I29" t="n">
-        <v>0.288</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" t="s"/>
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0.1</v>
@@ -2095,45 +2173,49 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" t="s"/>
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.165</v>
+        <v>0.021</v>
       </c>
       <c r="I31" t="n">
-        <v>0.105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s"/>
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
@@ -2149,21 +2231,23 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" t="s"/>
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>0.1</v>
@@ -2176,207 +2260,255 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" t="s"/>
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="H34" t="n">
-        <v>0.063</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>0.033</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" t="s"/>
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
         <v>2</v>
       </c>
       <c r="G35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>0.021</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s"/>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.331</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s"/>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.173</v>
-      </c>
-    </row>
     <row r="38" spans="1:9">
-      <c r="A38" t="s"/>
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s"/>
-      <c r="E38" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" t="s"/>
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s"/>
-      <c r="E39" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
+      <c r="G39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" t="s"/>
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s"/>
-      <c r="E40" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" t="n">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" t="s"/>
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="H41" t="n">
-        <v>0.021</v>
+        <v>0.063</v>
       </c>
       <c r="I41" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" t="s"/>
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0.1</v>
@@ -2389,142 +2521,124 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" t="s"/>
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>87</v>
       </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s"/>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s"/>
-      <c r="B45" t="s">
-        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s"/>
-      <c r="B46" t="s">
-        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
+      <c r="D46" t="s"/>
+      <c r="E46" t="s"/>
       <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.052</v>
-      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" t="s"/>
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
+      <c r="D47" t="s"/>
+      <c r="E47" t="s"/>
       <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.057</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" t="s"/>
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
       <c r="B48" t="s">
         <v>96</v>
       </c>
@@ -2535,280 +2649,300 @@
         <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.254</v>
+        <v>0.021</v>
       </c>
       <c r="I48" t="n">
-        <v>0.179</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" t="s"/>
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
       <c r="B49" t="s">
         <v>99</v>
       </c>
       <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
         <v>101</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s"/>
-      <c r="B50" t="s">
+      <c r="D51" t="s">
         <v>102</v>
       </c>
-      <c r="C50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s"/>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="H51" t="n">
-        <v>0.021</v>
+        <v>0.068</v>
       </c>
       <c r="I51" t="n">
-        <v>0.012</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" t="s"/>
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s"/>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
-      </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="H53" t="n">
-        <v>0.021</v>
+        <v>0.068</v>
       </c>
       <c r="I53" t="n">
-        <v>0.012</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s"/>
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H54" t="n">
-        <v>0.021</v>
+        <v>0.074</v>
       </c>
       <c r="I54" t="n">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" t="s"/>
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
       <c r="B55" t="s">
         <v>105</v>
       </c>
       <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C56" t="s">
         <v>110</v>
       </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s"/>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
-      </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
-        <v>0.021</v>
+        <v>0.462</v>
       </c>
       <c r="I56" t="n">
-        <v>0.012</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" t="s"/>
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1</v>
+        <v>2.59</v>
       </c>
       <c r="H57" t="n">
-        <v>0.021</v>
+        <v>1.87</v>
       </c>
       <c r="I57" t="n">
-        <v>0.012</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" t="s"/>
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0.1</v>
@@ -2821,48 +2955,52 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" t="s"/>
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.064</v>
+        <v>0.021</v>
       </c>
       <c r="I59" t="n">
-        <v>0.046</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" t="s"/>
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>0.1</v>
@@ -2875,941 +3013,1218 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" t="s"/>
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.11</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H68" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I68" t="n">
         <v>0.008</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s"/>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.15</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H69" t="n">
         <v>0.006</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I69" t="n">
         <v>0.004</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s"/>
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s"/>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" t="s"/>
-      <c r="E64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="H64" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s"/>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
         <v>124</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C70" t="s">
         <v>125</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D70" t="s">
         <v>126</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.4194</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.3647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s"/>
-      <c r="B66" t="s">
+      <c r="E70" t="s">
         <v>127</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s"/>
-      <c r="B67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s"/>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s"/>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="n">
-        <v>12</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s"/>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s"/>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="H71" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>12</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.4</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H77" t="n">
         <v>0.28</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I77" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s"/>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="n">
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.4</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H78" t="n">
         <v>0.28</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I78" t="n">
         <v>0.28</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s"/>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s"/>
-      <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s"/>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s"/>
-      <c r="B75" t="s">
+      <c r="C79" t="s">
         <v>152</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D79" t="s">
         <v>153</v>
       </c>
-      <c r="D75" t="s"/>
-      <c r="E75" t="s"/>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s"/>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" t="s"/>
-      <c r="E76" t="s"/>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s"/>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" t="s"/>
-      <c r="E77" t="s"/>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s"/>
-      <c r="B78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" t="s"/>
-      <c r="E78" t="s"/>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s"/>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" t="s">
-        <v>162</v>
-      </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s"/>
+      <c r="E82" t="s"/>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" t="s"/>
+      <c r="E83" t="s"/>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s"/>
+      <c r="E84" t="s"/>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s"/>
+      <c r="E85" t="s"/>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.73</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H86" t="n">
         <v>0.552</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I86" t="n">
         <v>0.452</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s"/>
-      <c r="B80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80" t="s">
-        <v>165</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.27</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H87" t="n">
         <v>0.2</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I87" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s"/>
-      <c r="B81" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
         <v>17.69</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H88" t="n">
         <v>13.6</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I88" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s"/>
-      <c r="B82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" t="n">
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="n">
         <v>5</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G89" t="n">
         <v>3.74</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H89" t="n">
         <v>2.78</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I89" t="n">
         <v>2.21</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s"/>
-      <c r="B83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
         <v>10.99</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H90" t="n">
         <v>7.84</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I90" t="n">
         <v>6.95</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s"/>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" t="s">
-        <v>176</v>
-      </c>
-      <c r="D84" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.28</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H91" t="n">
         <v>0.215</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I91" t="n">
         <v>0.177</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s"/>
-      <c r="B85" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" t="s">
-        <v>179</v>
-      </c>
-      <c r="D85" t="s">
-        <v>180</v>
-      </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
         <v>4.2</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H92" t="n">
         <v>2.59</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I92" t="n">
         <v>1.85</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s"/>
-      <c r="B86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" t="s"/>
-      <c r="E86" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="H86" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s"/>
-      <c r="B87" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.363</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s"/>
-      <c r="B88" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" t="s">
-        <v>186</v>
-      </c>
-      <c r="E88" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.08945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s"/>
-      <c r="B89" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" t="s">
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s">
         <v>189</v>
       </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.281</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s"/>
-      <c r="B90" t="s">
+      <c r="C93" t="s">
         <v>190</v>
-      </c>
-      <c r="C90" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" t="s">
-        <v>192</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5</v>
-      </c>
-      <c r="G90" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s"/>
-      <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s"/>
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" t="s"/>
-      <c r="E92" t="s">
-        <v>196</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>44</v>
-      </c>
-      <c r="H92" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s"/>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>197</v>
       </c>
       <c r="D93" t="s"/>
       <c r="E93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.08945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
         <v>196</v>
       </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s"/>
+      <c r="E99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>44</v>
+      </c>
+      <c r="H99" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" t="s"/>
+      <c r="E100" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
         <v>58</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H100" t="n">
         <v>36</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I100" t="n">
         <v>25.2</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s"/>
-      <c r="B94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" t="s"/>
-      <c r="E94" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s"/>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
         <v>38</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H101" t="n">
         <v>23.4</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I101" t="n">
         <v>18.25</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s"/>
-      <c r="B95" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" t="s"/>
-      <c r="E95" t="s">
-        <v>196</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" t="s"/>
+      <c r="E102" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
         <v>38</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H102" t="n">
         <v>23.4</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I102" t="n">
         <v>18.25</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s"/>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96" t="s"/>
-      <c r="E96" t="s">
-        <v>196</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" t="s"/>
+      <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
         <v>26</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H103" t="n">
         <v>16.01</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I103" t="n">
         <v>12.49</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s"/>
-      <c r="B97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" t="s">
-        <v>202</v>
-      </c>
-      <c r="D97" t="s"/>
-      <c r="E97" t="s">
-        <v>196</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s"/>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s"/>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3861,19 +4276,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -3890,19 +4305,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -3919,19 +4334,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -3948,19 +4363,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3977,19 +4392,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4006,19 +4421,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -4035,19 +4450,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -4064,19 +4479,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -4093,19 +4508,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -4122,19 +4537,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -4151,13 +4566,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -4168,13 +4583,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -4185,13 +4600,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -4202,19 +4617,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -4231,19 +4646,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -4260,19 +4675,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -4289,19 +4704,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4318,19 +4733,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -4347,19 +4762,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4376,19 +4791,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -4405,19 +4820,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -4434,19 +4849,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -4463,19 +4878,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -4492,19 +4907,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
@@ -4521,19 +4936,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -4550,19 +4965,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -4579,19 +4994,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -4608,19 +5023,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -4637,19 +5052,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -4666,19 +5081,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>6</v>
@@ -4695,19 +5110,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -4724,19 +5139,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
@@ -4753,19 +5168,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -4782,19 +5197,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -4811,19 +5226,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -4840,16 +5255,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -4866,19 +5281,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -4895,19 +5310,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -4924,19 +5339,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -4953,19 +5368,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -4982,19 +5397,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
@@ -5011,19 +5426,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -5040,19 +5455,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -5069,13 +5484,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -5086,19 +5501,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -5115,19 +5530,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -5144,19 +5559,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -5173,16 +5588,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -5199,19 +5614,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -5228,19 +5643,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -5305,19 +5720,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -5334,19 +5749,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -5363,19 +5778,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -5392,19 +5807,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -5421,19 +5836,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -5450,19 +5865,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -5479,19 +5894,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -5508,19 +5923,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -5537,19 +5952,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -5566,19 +5981,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5595,19 +6010,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5624,19 +6039,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -5653,19 +6068,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5682,19 +6097,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5711,19 +6126,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5740,19 +6155,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
@@ -5769,19 +6184,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -5798,19 +6213,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
@@ -5827,19 +6242,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5856,19 +6271,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
@@ -5885,19 +6300,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -5914,19 +6329,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
@@ -5943,19 +6358,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -5972,19 +6387,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
@@ -6001,13 +6416,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
@@ -6018,19 +6433,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -6047,19 +6462,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6076,19 +6491,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6105,19 +6520,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -6134,19 +6549,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6163,19 +6578,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -6192,19 +6607,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -6221,19 +6636,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
@@ -6250,19 +6665,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -6279,19 +6694,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -6308,16 +6723,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -6334,19 +6749,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -6363,13 +6778,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -6380,13 +6795,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -6397,13 +6812,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -6414,19 +6829,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -6443,19 +6858,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -6472,19 +6887,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -6501,19 +6916,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -6530,16 +6945,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -6556,16 +6971,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -6630,16 +7045,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -6656,19 +7071,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -6682,132 +7100,135 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="H4" t="n">
-        <v>0.473</v>
+        <v>0.057</v>
       </c>
       <c r="I4" t="n">
-        <v>0.321</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.36</v>
+        <v>0.021</v>
       </c>
       <c r="I6" t="n">
-        <v>0.288</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="H7" t="n">
-        <v>0.021</v>
+        <v>0.063</v>
       </c>
       <c r="I7" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -6821,138 +7242,135 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1</v>
+        <v>0.71</v>
       </c>
       <c r="H9" t="n">
-        <v>0.021</v>
+        <v>0.331</v>
       </c>
       <c r="I9" t="n">
-        <v>0.012</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="H10" t="n">
-        <v>0.063</v>
+        <v>0.129</v>
       </c>
       <c r="I10" t="n">
-        <v>0.033</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="H11" t="n">
-        <v>0.021</v>
+        <v>0.065</v>
       </c>
       <c r="I11" t="n">
-        <v>0.012</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.71</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0.331</v>
+        <v>0.074</v>
       </c>
       <c r="I12" t="n">
-        <v>0.208</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>0.1</v>
@@ -6966,225 +7384,222 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.129</v>
+        <v>0.021</v>
       </c>
       <c r="I14" t="n">
-        <v>0.062</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.065</v>
+        <v>0.021</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.074</v>
+        <v>0.021</v>
       </c>
       <c r="I16" t="n">
-        <v>0.057</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.254</v>
+        <v>0.021</v>
       </c>
       <c r="I17" t="n">
-        <v>0.179</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.462</v>
+        <v>0.021</v>
       </c>
       <c r="I18" t="n">
-        <v>0.363</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="n">
         <v>12</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H19" t="n">
-        <v>0.021</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0.54</v>
       </c>
       <c r="H20" t="n">
-        <v>0.021</v>
+        <v>0.36</v>
       </c>
       <c r="I20" t="n">
-        <v>0.012</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0.1</v>
@@ -7198,77 +7613,77 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="H22" t="n">
-        <v>0.021</v>
+        <v>0.254</v>
       </c>
       <c r="I22" t="n">
-        <v>0.012</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0.021</v>
+        <v>0.462</v>
       </c>
       <c r="I23" t="n">
-        <v>0.012</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -7285,19 +7700,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -7314,19 +7729,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -7343,19 +7758,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -7372,13 +7787,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -7389,13 +7804,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -7406,19 +7821,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -7435,16 +7850,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
@@ -7461,16 +7876,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F32" t="n">
         <v>5</v>
@@ -7487,19 +7902,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -7516,13 +7931,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -7539,13 +7954,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -7562,13 +7977,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -7585,13 +8000,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -7608,13 +8023,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -7631,13 +8046,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>

--- a/tools/conservify.xlsx
+++ b/tools/conservify.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>refs</t>
   </si>
@@ -188,6 +188,27 @@
     <t>859-LTST-C190KSKT</t>
   </si>
   <si>
+    <t>Oddities:Dummy_Empty</t>
+  </si>
+  <si>
+    <t>ATLAS_DO_PROBE</t>
+  </si>
+  <si>
+    <t>atlas</t>
+  </si>
+  <si>
+    <t>ATLAS_EC_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_ORP_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_PH_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_RTD_PROBE</t>
+  </si>
+  <si>
     <t>Resistors_SMD:R_0603_HandSoldering</t>
   </si>
   <si>
@@ -632,9 +653,6 @@
     <t>ATLAS_DO</t>
   </si>
   <si>
-    <t>atlas</t>
-  </si>
-  <si>
     <t>ATLAS_EC</t>
   </si>
   <si>
@@ -644,7 +662,7 @@
     <t>ATLAS_PH</t>
   </si>
   <si>
-    <t>ATLAS_RTD_TEMP</t>
+    <t>ATLAS_RTD</t>
   </si>
   <si>
     <t>conservify:feather</t>
@@ -921,6 +939,21 @@
   </si>
   <si>
     <t>D4,D1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
   <si>
     <t>R401,R301,R302,R504,R502,R501,R602,R202,R201,R204,R304,R404,R604,R601,R402</t>
@@ -1298,7 +1331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,30 +1949,30 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D22" t="s"/>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>188.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.021</v>
+        <v>178.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0.012</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1950,25 +1983,23 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>206.67</v>
       </c>
       <c r="H23" t="n">
-        <v>0.021</v>
+        <v>195.8</v>
       </c>
       <c r="I23" t="n">
-        <v>0.012</v>
+        <v>195.8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1979,30 +2010,28 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
         <v>60</v>
       </c>
+      <c r="D24" t="s"/>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>102.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0.021</v>
+        <v>97.2</v>
       </c>
       <c r="I24" t="n">
-        <v>0.012</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -2010,28 +2039,26 @@
       <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
+      <c r="D25" t="s"/>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0.021</v>
+        <v>64.8</v>
       </c>
       <c r="I25" t="n">
-        <v>0.012</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -2039,35 +2066,33 @@
       <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
+      <c r="D26" t="s"/>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>17.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.021</v>
+        <v>16.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0.012</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s"/>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2076,33 +2101,33 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.473</v>
+        <v>0.021</v>
       </c>
       <c r="I27" t="n">
-        <v>0.321</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
         <v>0.1</v>
@@ -2116,22 +2141,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0.1</v>
@@ -2148,13 +2173,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -2174,22 +2199,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
         <v>0.1</v>
@@ -2202,32 +2227,30 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" t="s"/>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.021</v>
+        <v>0.473</v>
       </c>
       <c r="I32" t="n">
-        <v>0.012</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2235,13 +2258,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -2261,31 +2284,31 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I34" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2293,42 +2316,42 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.173</v>
+        <v>0.021</v>
       </c>
       <c r="I35" t="n">
-        <v>0.15</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -2337,33 +2360,33 @@
         <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.021</v>
       </c>
       <c r="I36" t="n">
-        <v>0.288</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
         <v>0.1</v>
@@ -2377,118 +2400,118 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.165</v>
+        <v>0.021</v>
       </c>
       <c r="I38" t="n">
-        <v>0.105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H39" t="n">
-        <v>0.021</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
-        <v>0.021</v>
+        <v>0.173</v>
       </c>
       <c r="I40" t="n">
-        <v>0.012</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="H41" t="n">
-        <v>0.063</v>
+        <v>0.36</v>
       </c>
       <c r="I41" t="n">
-        <v>0.033</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2496,19 +2519,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G42" t="n">
         <v>0.1</v>
@@ -2525,28 +2548,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0.331</v>
+        <v>0.165</v>
       </c>
       <c r="I43" t="n">
-        <v>0.208</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2554,28 +2577,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.207</v>
+        <v>0.021</v>
       </c>
       <c r="I44" t="n">
-        <v>0.173</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2583,19 +2606,29 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s"/>
-      <c r="E45" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -2605,280 +2638,270 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s"/>
-      <c r="E46" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.033</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" t="s"/>
-      <c r="E47" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" t="n">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>0.71</v>
       </c>
       <c r="H48" t="n">
-        <v>0.021</v>
+        <v>0.331</v>
       </c>
       <c r="I48" t="n">
-        <v>0.012</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="H49" t="n">
-        <v>0.021</v>
+        <v>0.207</v>
       </c>
       <c r="I49" t="n">
-        <v>0.012</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D50" t="s"/>
+      <c r="E50" t="s"/>
       <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.062</v>
-      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D51" t="s"/>
+      <c r="E51" t="s"/>
       <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.052</v>
-      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
       <c r="F52" t="n">
-        <v>4</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.068</v>
+        <v>0.021</v>
       </c>
       <c r="I53" t="n">
-        <v>0.052</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.074</v>
+        <v>0.021</v>
       </c>
       <c r="I54" t="n">
-        <v>0.057</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="H55" t="n">
-        <v>0.254</v>
+        <v>0.129</v>
       </c>
       <c r="I55" t="n">
-        <v>0.179</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -2887,42 +2910,42 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="H56" t="n">
-        <v>0.462</v>
+        <v>0.068</v>
       </c>
       <c r="I56" t="n">
-        <v>0.363</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="H57" t="n">
-        <v>1.87</v>
+        <v>0.065</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2930,71 +2953,71 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="H58" t="n">
-        <v>0.021</v>
+        <v>0.068</v>
       </c>
       <c r="I58" t="n">
-        <v>0.012</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
-        <v>0.021</v>
+        <v>0.074</v>
       </c>
       <c r="I59" t="n">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -3003,42 +3026,42 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="H60" t="n">
-        <v>0.021</v>
+        <v>0.254</v>
       </c>
       <c r="I60" t="n">
-        <v>0.012</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
-        <v>0.021</v>
+        <v>0.462</v>
       </c>
       <c r="I61" t="n">
-        <v>0.012</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3046,13 +3069,13 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -3061,13 +3084,13 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1.41</v>
+        <v>2.59</v>
       </c>
       <c r="H62" t="n">
-        <v>0.054</v>
+        <v>1.87</v>
       </c>
       <c r="I62" t="n">
-        <v>0.036</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3075,13 +3098,13 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -3104,19 +3127,19 @@
         <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="s">
-        <v>68</v>
-      </c>
       <c r="E64" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>0.1</v>
@@ -3133,19 +3156,19 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>0.1</v>
@@ -3162,13 +3185,13 @@
         <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -3177,13 +3200,13 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.064</v>
+        <v>0.021</v>
       </c>
       <c r="I66" t="n">
-        <v>0.046</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3191,28 +3214,28 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1</v>
+        <v>1.41</v>
       </c>
       <c r="H67" t="n">
-        <v>0.021</v>
+        <v>0.054</v>
       </c>
       <c r="I67" t="n">
-        <v>0.012</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3220,28 +3243,28 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I68" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3249,28 +3272,28 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.006</v>
+        <v>0.021</v>
       </c>
       <c r="I69" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3278,28 +3301,28 @@
         <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.98</v>
+        <v>0.021</v>
       </c>
       <c r="I70" t="n">
-        <v>0.873</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3307,26 +3330,28 @@
         <v>42</v>
       </c>
       <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
         <v>128</v>
       </c>
-      <c r="C71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>15.16</v>
+        <v>0.38</v>
       </c>
       <c r="H71" t="n">
-        <v>15.16</v>
+        <v>0.064</v>
       </c>
       <c r="I71" t="n">
-        <v>15.16</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3334,28 +3359,28 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4194</v>
+        <v>0.021</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3647</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3363,28 +3388,28 @@
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
       <c r="H73" t="n">
-        <v>0.39</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I73" t="n">
-        <v>0.367</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3392,13 +3417,13 @@
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -3407,114 +3432,112 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="H74" t="n">
-        <v>0.198</v>
+        <v>0.006</v>
       </c>
       <c r="I74" t="n">
-        <v>0.149</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>0.51</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
-        <v>0.255</v>
+        <v>0.98</v>
       </c>
       <c r="I75" t="n">
-        <v>0.197</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D76" t="s"/>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.14</v>
+        <v>15.16</v>
       </c>
       <c r="H76" t="n">
-        <v>0.044</v>
+        <v>15.16</v>
       </c>
       <c r="I76" t="n">
-        <v>0.029</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="H77" t="n">
-        <v>0.28</v>
+        <v>0.4194</v>
       </c>
       <c r="I77" t="n">
-        <v>0.28</v>
+        <v>0.3647</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -3523,364 +3546,364 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="H78" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I78" t="n">
-        <v>0.28</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
         <v>13</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>3.15</v>
+        <v>0.48</v>
       </c>
       <c r="H79" t="n">
-        <v>2.59</v>
+        <v>0.198</v>
       </c>
       <c r="I79" t="n">
-        <v>2.48</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="H80" t="n">
-        <v>0.461</v>
+        <v>0.255</v>
       </c>
       <c r="I80" t="n">
-        <v>0.364</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
         <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>0.82</v>
+        <v>0.14</v>
       </c>
       <c r="H81" t="n">
-        <v>0.443</v>
+        <v>0.044</v>
       </c>
       <c r="I81" t="n">
-        <v>0.379</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" t="s"/>
-      <c r="E82" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="D82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
       <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" t="s"/>
-      <c r="E83" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
       <c r="F83" t="n">
         <v>1</v>
       </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s"/>
+      <c r="G83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" t="s"/>
-      <c r="E84" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="D84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
       <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" t="s"/>
-      <c r="E85" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>141</v>
+      </c>
       <c r="F85" t="n">
-        <v>3</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.364</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="H86" t="n">
-        <v>0.552</v>
+        <v>0.443</v>
       </c>
       <c r="I86" t="n">
-        <v>0.452</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D87" t="s"/>
+      <c r="E87" t="s"/>
       <c r="F87" t="n">
         <v>1</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D88" t="s"/>
+      <c r="E88" t="s"/>
       <c r="F88" t="n">
         <v>1</v>
       </c>
-      <c r="G88" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D89" t="s"/>
+      <c r="E89" t="s"/>
       <c r="F89" t="n">
-        <v>5</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D90" t="s"/>
+      <c r="E90" t="s"/>
       <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.95</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="H91" t="n">
-        <v>0.215</v>
+        <v>0.552</v>
       </c>
       <c r="I91" t="n">
-        <v>0.177</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -3889,13 +3912,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>0.27</v>
       </c>
       <c r="H92" t="n">
-        <v>2.59</v>
+        <v>0.2</v>
       </c>
       <c r="I92" t="n">
-        <v>1.85</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3903,84 +3926,86 @@
         <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="D93" t="s">
+        <v>183</v>
+      </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>11.35</v>
+        <v>17.69</v>
       </c>
       <c r="H93" t="n">
-        <v>11.35</v>
+        <v>13.6</v>
       </c>
       <c r="I93" t="n">
-        <v>11.35</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>3.74</v>
       </c>
       <c r="H94" t="n">
-        <v>0.462</v>
+        <v>2.78</v>
       </c>
       <c r="I94" t="n">
-        <v>0.363</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>10.99</v>
       </c>
       <c r="H95" t="n">
-        <v>2.882</v>
+        <v>7.84</v>
       </c>
       <c r="I95" t="n">
-        <v>2.08945</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3988,13 +4013,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4003,152 +4028,156 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="H96" t="n">
-        <v>0.297</v>
+        <v>0.215</v>
       </c>
       <c r="I96" t="n">
-        <v>0.281</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>7.81</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
-        <v>5.9</v>
+        <v>2.59</v>
       </c>
       <c r="I97" t="n">
-        <v>4.31</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" t="s">
-        <v>156</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D98" t="s"/>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.55</v>
+        <v>11.35</v>
       </c>
       <c r="H98" t="n">
-        <v>0.461</v>
+        <v>11.35</v>
       </c>
       <c r="I98" t="n">
-        <v>0.364</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>118</v>
+      </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>44</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
-        <v>23.4</v>
+        <v>0.462</v>
       </c>
       <c r="I99" t="n">
-        <v>18.25</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>201</v>
+      </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>58</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
-        <v>36</v>
+        <v>2.882</v>
       </c>
       <c r="I100" t="n">
-        <v>25.2</v>
+        <v>2.08945</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="D101" t="s">
+        <v>204</v>
+      </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>38</v>
+        <v>0.48</v>
       </c>
       <c r="H101" t="n">
-        <v>23.4</v>
+        <v>0.297</v>
       </c>
       <c r="I101" t="n">
-        <v>18.25</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4156,53 +4185,57 @@
         <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
         <v>207</v>
       </c>
-      <c r="D102" t="s"/>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>38</v>
+        <v>7.81</v>
       </c>
       <c r="H102" t="n">
-        <v>23.4</v>
+        <v>5.9</v>
       </c>
       <c r="I102" t="n">
-        <v>18.25</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
       <c r="E103" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>26</v>
+        <v>0.55</v>
       </c>
       <c r="H103" t="n">
-        <v>16.01</v>
+        <v>0.461</v>
       </c>
       <c r="I103" t="n">
-        <v>12.49</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4217,14 +4250,147 @@
       </c>
       <c r="D104" t="s"/>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s"/>
+      <c r="G104" t="n">
+        <v>44</v>
+      </c>
+      <c r="H104" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" t="s"/>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>58</v>
+      </c>
+      <c r="H105" t="n">
+        <v>36</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" t="s"/>
+      <c r="E106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>38</v>
+      </c>
+      <c r="H106" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s"/>
+      <c r="E107" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>38</v>
+      </c>
+      <c r="H107" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I107" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s"/>
+      <c r="E108" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" t="s"/>
+      <c r="E109" t="s"/>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4276,7 +4442,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -4305,16 +4471,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4334,10 +4500,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -4363,16 +4529,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4392,10 +4558,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -4421,10 +4587,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -4450,10 +4616,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -4479,10 +4645,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -4508,10 +4674,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -4537,16 +4703,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4566,13 +4732,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -4583,13 +4749,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -4600,13 +4766,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -4617,16 +4783,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -4646,10 +4812,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -4675,16 +4841,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -4704,10 +4870,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -4733,16 +4899,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -4762,10 +4928,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -4791,16 +4957,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -4820,16 +4986,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -4849,16 +5015,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -4878,16 +5044,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -4907,16 +5073,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -4936,16 +5102,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -4965,16 +5131,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -4994,16 +5160,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -5023,16 +5189,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -5052,16 +5218,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -5081,16 +5247,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -5110,16 +5276,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -5139,16 +5305,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -5168,16 +5334,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -5197,16 +5363,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -5226,19 +5392,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5255,16 +5421,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -5281,19 +5447,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -5310,16 +5476,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -5339,16 +5505,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -5368,16 +5534,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -5397,16 +5563,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -5426,16 +5592,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -5455,16 +5621,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -5484,13 +5650,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -5501,16 +5667,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -5530,16 +5696,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -5559,16 +5725,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -5588,16 +5754,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -5614,19 +5780,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -5643,19 +5809,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -5720,7 +5886,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -5749,7 +5915,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5778,7 +5944,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -5807,7 +5973,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -5836,7 +6002,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -5865,7 +6031,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -5894,7 +6060,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -5923,7 +6089,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -5952,7 +6118,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -5981,7 +6147,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -6010,7 +6176,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -6039,7 +6205,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -6068,7 +6234,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -6097,7 +6263,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -6126,16 +6292,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -6155,16 +6321,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -6184,16 +6350,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -6213,16 +6379,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -6242,16 +6408,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -6271,16 +6437,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -6300,16 +6466,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -6329,16 +6495,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -6358,16 +6524,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -6387,16 +6553,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -6416,13 +6582,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
@@ -6433,16 +6599,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -6462,16 +6628,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -6491,10 +6657,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -6520,10 +6686,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -6549,10 +6715,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -6578,16 +6744,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -6607,16 +6773,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -6636,16 +6802,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -6665,16 +6831,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -6694,16 +6860,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -6723,16 +6889,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -6749,16 +6915,16 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -6778,13 +6944,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -6795,13 +6961,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -6812,13 +6978,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -6829,16 +6995,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -6858,16 +7024,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -6887,16 +7053,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -6916,16 +7082,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -6945,16 +7111,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -6971,16 +7137,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -7006,7 +7172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7045,7 +7211,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -7071,7 +7237,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -7100,7 +7266,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -7126,7 +7292,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -7155,7 +7321,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -7184,7 +7350,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -7213,7 +7379,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -7242,7 +7408,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -7271,7 +7437,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -7300,7 +7466,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -7329,7 +7495,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -7358,7 +7524,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -7366,25 +7532,22 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>188.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.021</v>
+        <v>178.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.012</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -7392,130 +7555,103 @@
       <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>206.67</v>
       </c>
       <c r="H14" t="n">
-        <v>0.021</v>
+        <v>195.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0.012</v>
+        <v>195.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>102.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.021</v>
+        <v>97.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.012</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.021</v>
+        <v>64.8</v>
       </c>
       <c r="I16" t="n">
-        <v>0.012</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>17.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.021</v>
+        <v>16.2</v>
       </c>
       <c r="I17" t="n">
-        <v>0.012</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
         <v>0.1</v>
@@ -7529,42 +7665,45 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -7573,33 +7712,33 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.36</v>
+        <v>0.021</v>
       </c>
       <c r="I20" t="n">
-        <v>0.288</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0.1</v>
@@ -7613,161 +7752,158 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.254</v>
+        <v>0.021</v>
       </c>
       <c r="I22" t="n">
-        <v>0.179</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.462</v>
+        <v>0.021</v>
       </c>
       <c r="I23" t="n">
-        <v>0.363</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.255</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.197</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="H25" t="n">
-        <v>0.044</v>
+        <v>0.36</v>
       </c>
       <c r="I25" t="n">
-        <v>0.029</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.021</v>
       </c>
       <c r="I26" t="n">
-        <v>0.28</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -7776,277 +7912,307 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.15</v>
+        <v>0.33</v>
       </c>
       <c r="H27" t="n">
-        <v>2.59</v>
+        <v>0.254</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s"/>
+      <c r="G28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.363</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s"/>
+      <c r="G29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.197</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.73</v>
+        <v>0.14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.552</v>
+        <v>0.044</v>
       </c>
       <c r="I30" t="n">
-        <v>0.452</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.74</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>2.21</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>7.81</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>5.9</v>
+        <v>2.59</v>
       </c>
       <c r="I32" t="n">
-        <v>4.31</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.364</v>
-      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="n">
-        <v>44</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18.25</v>
-      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>58</v>
+        <v>0.73</v>
       </c>
       <c r="H35" t="n">
-        <v>36</v>
+        <v>0.552</v>
       </c>
       <c r="I35" t="n">
-        <v>25.2</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>38</v>
+        <v>3.74</v>
       </c>
       <c r="H36" t="n">
-        <v>23.4</v>
+        <v>2.78</v>
       </c>
       <c r="I36" t="n">
-        <v>18.25</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" t="s">
         <v>207</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>38</v>
+        <v>7.81</v>
       </c>
       <c r="H37" t="n">
-        <v>23.4</v>
+        <v>5.9</v>
       </c>
       <c r="I37" t="n">
-        <v>18.25</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>26</v>
+        <v>0.55</v>
       </c>
       <c r="H38" t="n">
-        <v>16.01</v>
+        <v>0.461</v>
       </c>
       <c r="I38" t="n">
-        <v>12.49</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
         <v>209</v>
@@ -8057,9 +8223,124 @@
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
+      <c r="G39" t="n">
+        <v>44</v>
+      </c>
+      <c r="H39" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>58</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>38</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>38</v>
+      </c>
+      <c r="H42" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>26</v>
+      </c>
+      <c r="H43" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/tools/conservify.xlsx
+++ b/tools/conservify.xlsx
@@ -29,10 +29,10 @@
     <t>value</t>
   </si>
   <si>
+    <t>spn1</t>
+  </si>
+  <si>
     <t>supplier1</t>
-  </si>
-  <si>
-    <t>spn1</t>
   </si>
   <si>
     <t>quantity</t>

--- a/tools/conservify.xlsx
+++ b/tools/conservify.xlsx
@@ -10,7 +10,8 @@
     <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="fk-core.sch" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="fk-weather.sch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="fk-atlas.sch" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fk-sonar.sch" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fk-atlas.sch" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>refs</t>
   </si>
@@ -146,19 +147,544 @@
     <t>985-TSL25911FN</t>
   </si>
   <si>
+    <t>fk-core.sch,fk-sonar.sch</t>
+  </si>
+  <si>
+    <t>Housings_DFN_QFN:DFN-8-1EP_3x2mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>MAX1704XX</t>
+  </si>
+  <si>
+    <t>700-MAX17043G+U</t>
+  </si>
+  <si>
+    <t>Inductors_SMD:L_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t>BLM18KG221SN1D</t>
+  </si>
+  <si>
+    <t>81-BLM18KG221SN1D</t>
+  </si>
+  <si>
+    <t>LEDs:LED_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>859-LTST-C191TBKT</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KFKT</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KSKT</t>
+  </si>
+  <si>
+    <t>Measurement_Points:Measurement_Point_Round-SMD-Pad_Small</t>
+  </si>
+  <si>
+    <t>Conn_01x01</t>
+  </si>
+  <si>
+    <t>Oddities:Dummy_Empty</t>
+  </si>
+  <si>
+    <t>ATLAS_DO_PROBE</t>
+  </si>
+  <si>
+    <t>atlas</t>
+  </si>
+  <si>
+    <t>ATLAS_EC_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_ORP_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_PH_PROBE</t>
+  </si>
+  <si>
+    <t>ATLAS_RTD_PROBE</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t>1.5K</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-071K5L</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>810-C1608X7S0J106M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-071ML</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0722KL</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>330R</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>603-AF0603JR-074K7L</t>
+  </si>
+  <si>
+    <t>WE-CBF</t>
+  </si>
+  <si>
+    <t>710-742792641</t>
+  </si>
+  <si>
+    <t>fk-core.sch,fk-weather.sch,fk-sonar.sch,fk-atlas.sch</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:ABS07</t>
+  </si>
+  <si>
+    <t>FC-135</t>
+  </si>
+  <si>
+    <t>732-FC135-32.76KAA3</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:CAP-0603</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>581-0603YC103K4T2A</t>
+  </si>
+  <si>
+    <t>47uF 10V X5R</t>
+  </si>
+  <si>
+    <t>81-GRM188R60J476ME5D</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:FIDUCIAL-1MM</t>
+  </si>
+  <si>
+    <t>FIDUCIAL</t>
+  </si>
+  <si>
     <t>fk-core.sch</t>
   </si>
   <si>
-    <t>Housings_DFN_QFN:DFN-8-1EP_3x2mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t>MAX1704XX</t>
-  </si>
-  <si>
-    <t>700-MAX17043G+U</t>
-  </si>
-  <si>
-    <t>Housings_DFN_QFN:DFN-8_2x2mm_Pitch0.5mm</t>
+    <t>RocketScreamKicadLibrary:HDR_1x19_Pitch2.54mm_WithoutSilk</t>
+  </si>
+  <si>
+    <t>CONN-HDR-1x19</t>
+  </si>
+  <si>
+    <t>fk-core.sch,fk-weather.sch,fk-sonar.sch</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:HOLE_NPTH_2.2MM</t>
+  </si>
+  <si>
+    <t>MOUNT_HOLE</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:IND-0402</t>
+  </si>
+  <si>
+    <t>BKP1005TS121-T</t>
+  </si>
+  <si>
+    <t>963-BKP1608HS121-T</t>
+  </si>
+  <si>
+    <t>fk-sonar.sch</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:IND-0603</t>
+  </si>
+  <si>
+    <t>fk-core.sch,fk-atlas.sch</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:LED-0603</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KGKT</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>859-LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:MF-PSMF020X</t>
+  </si>
+  <si>
+    <t>MF-PSMF050X-2</t>
+  </si>
+  <si>
+    <t>652-MF-PSMF050X-2</t>
+  </si>
+  <si>
+    <t>fk-core.sch,fk-sonar.sch,fk-atlas.sch</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:MICRO-USB</t>
+  </si>
+  <si>
+    <t>MICRO-USB</t>
+  </si>
+  <si>
+    <t>798-ZX62D-B-5PA830</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:QFN-16_3x3mm</t>
+  </si>
+  <si>
+    <t>BQ24074RGTT</t>
+  </si>
+  <si>
+    <t>595-BQ24074RGTT</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:RES-0603</t>
+  </si>
+  <si>
+    <t>180R</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-07180RL</t>
+  </si>
+  <si>
+    <t>1K18</t>
+  </si>
+  <si>
+    <t>667-ERJ-PA3F1181V</t>
+  </si>
+  <si>
+    <t>2K94</t>
+  </si>
+  <si>
+    <t>667-ERJ-S03F2941V</t>
+  </si>
+  <si>
+    <t>46K4</t>
+  </si>
+  <si>
+    <t>667-ERJ-3EKF4642V</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:RF-SMA-EDGE</t>
+  </si>
+  <si>
+    <t>RF-SMA-EDGE</t>
+  </si>
+  <si>
+    <t>S01-SJEDM-11BS05</t>
+  </si>
+  <si>
+    <t>rf supplier</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:RFM9xW</t>
+  </si>
+  <si>
+    <t>RFM95W</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:S2B-PH-SM4-TB</t>
+  </si>
+  <si>
+    <t>S2B-PH-SM4-TB</t>
+  </si>
+  <si>
+    <t>455-1749-1-ND</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:SOIC-8-N</t>
+  </si>
+  <si>
+    <t>S25FL116K0XMFI041</t>
+  </si>
+  <si>
+    <t>797-25FL116KOXMFI041</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:SOT-1016</t>
+  </si>
+  <si>
+    <t>PMEG3020CPA</t>
+  </si>
+  <si>
+    <t>771-PMEG3020CPA115</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:SOT-143B</t>
+  </si>
+  <si>
+    <t>PRTR5V0U2X</t>
+  </si>
+  <si>
+    <t>771-PRTR5V0U2X-T/R</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:SOT-23</t>
+  </si>
+  <si>
+    <t>2N7002LT1G</t>
+  </si>
+  <si>
+    <t>863-2N7002LT1G</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:SOT-89</t>
+  </si>
+  <si>
+    <t>MCP1700T-3302E/MB</t>
+  </si>
+  <si>
+    <t>579-MCP1700T3302E/MB</t>
+  </si>
+  <si>
+    <t>MCP1700T-XXX2E</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:TQFP-48_7x7mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>ATSAMD21G18A-AU</t>
+  </si>
+  <si>
+    <t>556-ATSAMD21G18A-AU</t>
+  </si>
+  <si>
+    <t>RocketScreamKicadLibrary:TS-018</t>
+  </si>
+  <si>
+    <t>SPNO</t>
+  </si>
+  <si>
+    <t>732-7055-1-ND</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Angled_1x02_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>CMA-4544PF-W</t>
+  </si>
+  <si>
+    <t>490-CMA-4544PF-W</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x02_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x03_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>CONN_01X03</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x04_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>CONN_01X04</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x05_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>CONN_01X05</t>
+  </si>
+  <si>
+    <t>fk-core.sch,fk-weather.sch</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x06_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>CONN_01X06</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_1x07_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>Conn_01x07</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_2x05_Pitch1.27mm_SMD</t>
+  </si>
+  <si>
+    <t>CONN-HDR-2x5</t>
+  </si>
+  <si>
+    <t>649-202112100010C4LF</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-5_HandSoldering</t>
+  </si>
+  <si>
+    <t>24AA02E64</t>
+  </si>
+  <si>
+    <t>579-24AA02E64T-I/OT</t>
+  </si>
+  <si>
+    <t>conservify:ATLAS_SENSOR_BOARD_COMBO</t>
+  </si>
+  <si>
+    <t>ATLAS_DO</t>
+  </si>
+  <si>
+    <t>ATLAS_EC</t>
+  </si>
+  <si>
+    <t>ATLAS_ORP</t>
+  </si>
+  <si>
+    <t>ATLAS_PH</t>
+  </si>
+  <si>
+    <t>ATLAS_RTD</t>
+  </si>
+  <si>
+    <t>conservify:ATMEL_ATWINC1500-MR210PA</t>
+  </si>
+  <si>
+    <t>ATWINC1500-MR210PA</t>
+  </si>
+  <si>
+    <t>556-ATWINC1500MR210U</t>
+  </si>
+  <si>
+    <t>conservify:BNC</t>
+  </si>
+  <si>
+    <t>CONN_01X02</t>
+  </si>
+  <si>
+    <t>523-31-5431</t>
+  </si>
+  <si>
+    <t>conservify:BNO055</t>
+  </si>
+  <si>
+    <t>BNO055</t>
+  </si>
+  <si>
+    <t>262-BNO055</t>
+  </si>
+  <si>
+    <t>conservify:BOURNS-TC33X-2</t>
+  </si>
+  <si>
+    <t>TC33X-2-104E (100K)</t>
+  </si>
+  <si>
+    <t>652-TC33X-2-104E</t>
+  </si>
+  <si>
+    <t>conservify:DFN-8-1EP_5x2.55mm_Pitch1.25mm_98ASA002260D</t>
+  </si>
+  <si>
+    <t>MPL3115A2</t>
+  </si>
+  <si>
+    <t>841-MPL3115A2</t>
+  </si>
+  <si>
+    <t>conservify:FGPMMOPA6H</t>
+  </si>
+  <si>
+    <t>FGPMMOPA6H</t>
+  </si>
+  <si>
+    <t>conservify:MICRO-USB</t>
+  </si>
+  <si>
+    <t>conservify:MICROSD</t>
+  </si>
+  <si>
+    <t>MICROSD</t>
+  </si>
+  <si>
+    <t>3M5607CT-ND</t>
+  </si>
+  <si>
+    <t>conservify:SC70-5</t>
+  </si>
+  <si>
+    <t>MAX4466</t>
+  </si>
+  <si>
+    <t>700-MAX4466EXKT</t>
+  </si>
+  <si>
+    <t>conservify:SHT3x</t>
   </si>
   <si>
     <t>SHT31</t>
@@ -167,472 +693,16 @@
     <t>403-SHT31-DIS-B</t>
   </si>
   <si>
-    <t>LEDs:LED_0603_HandSoldering</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>859-LTST-C191TBKT</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KFKT</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KSKT</t>
-  </si>
-  <si>
-    <t>Oddities:Dummy_Empty</t>
-  </si>
-  <si>
-    <t>ATLAS_DO_PROBE</t>
-  </si>
-  <si>
-    <t>atlas</t>
-  </si>
-  <si>
-    <t>ATLAS_EC_PROBE</t>
-  </si>
-  <si>
-    <t>ATLAS_ORP_PROBE</t>
-  </si>
-  <si>
-    <t>ATLAS_PH_PROBE</t>
-  </si>
-  <si>
-    <t>ATLAS_RTD_PROBE</t>
-  </si>
-  <si>
-    <t>Resistors_SMD:R_0603_HandSoldering</t>
-  </si>
-  <si>
-    <t>1.5K</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-071K5L</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-07100KL</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>810-C1608X7S0J106M</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-071ML</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-0722KL</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t>2k2</t>
-  </si>
-  <si>
-    <t>330R</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-07330RL</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>603-AF0603JR-074K7L</t>
-  </si>
-  <si>
-    <t>WE-CBF</t>
-  </si>
-  <si>
-    <t>710-742792641</t>
-  </si>
-  <si>
-    <t>fk-core.sch,fk-weather.sch,fk-atlas.sch</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:ABS07</t>
-  </si>
-  <si>
-    <t>FC-135</t>
-  </si>
-  <si>
-    <t>732-FC135-32.76KAA3</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:CAP-0603</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>581-0603YC103K4T2A</t>
-  </si>
-  <si>
-    <t>47uF 10V X5R</t>
-  </si>
-  <si>
-    <t>81-GRM188R60J476ME5D</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:FIDUCIAL-1MM</t>
-  </si>
-  <si>
-    <t>FIDUCIAL</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:HDR_1x19_Pitch2.54mm_WithoutSilk</t>
-  </si>
-  <si>
-    <t>CONN-HDR-1x19</t>
-  </si>
-  <si>
-    <t>fk-core.sch,fk-weather.sch</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:HOLE_NPTH_2.2MM</t>
-  </si>
-  <si>
-    <t>MOUNT_HOLE</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:IND-0402</t>
-  </si>
-  <si>
-    <t>BKP1005TS121-T</t>
-  </si>
-  <si>
-    <t>963-BKP1608HS121-T</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:IND-0603</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:LED-0603</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KGKT</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>859-LTST-C190KRKT</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:MF-PSMF020X</t>
-  </si>
-  <si>
-    <t>MF-PSMF050X-2</t>
-  </si>
-  <si>
-    <t>652-MF-PSMF050X-2</t>
-  </si>
-  <si>
-    <t>fk-core.sch,fk-atlas.sch</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:MICRO-USB</t>
-  </si>
-  <si>
-    <t>MICRO-USB</t>
-  </si>
-  <si>
-    <t>798-ZX62D-B-5PA830</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:QFN-16_3x3mm</t>
-  </si>
-  <si>
-    <t>BQ24074RGTT</t>
-  </si>
-  <si>
-    <t>595-BQ24074RGTT</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:RES-0603</t>
-  </si>
-  <si>
-    <t>180R</t>
-  </si>
-  <si>
-    <t>603-RC0603FR-07180RL</t>
-  </si>
-  <si>
-    <t>1K18</t>
-  </si>
-  <si>
-    <t>667-ERJ-PA3F1181V</t>
-  </si>
-  <si>
-    <t>2K94</t>
-  </si>
-  <si>
-    <t>667-ERJ-S03F2941V</t>
-  </si>
-  <si>
-    <t>46K4</t>
-  </si>
-  <si>
-    <t>667-ERJ-3EKF4642V</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:RF-SMA-EDGE</t>
-  </si>
-  <si>
-    <t>RF-SMA-EDGE</t>
-  </si>
-  <si>
-    <t>S01-SJEDM-11BS05</t>
-  </si>
-  <si>
-    <t>rf supplier</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:RFM9xW</t>
-  </si>
-  <si>
-    <t>RFM95W</t>
-  </si>
-  <si>
-    <t>various</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:S2B-PH-SM4-TB</t>
-  </si>
-  <si>
-    <t>S2B-PH-SM4-TB</t>
-  </si>
-  <si>
-    <t>455-1749-1-ND</t>
-  </si>
-  <si>
-    <t>digikey</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:SOIC-8-N</t>
-  </si>
-  <si>
-    <t>S25FL116K0XMFI041</t>
-  </si>
-  <si>
-    <t>797-25FL116KOXMFI041</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:SOT-1016</t>
-  </si>
-  <si>
-    <t>PMEG3020CPA</t>
-  </si>
-  <si>
-    <t>771-PMEG3020CPA115</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:SOT-143B</t>
-  </si>
-  <si>
-    <t>PRTR5V0U2X</t>
-  </si>
-  <si>
-    <t>771-PRTR5V0U2X-T/R</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:SOT-23</t>
-  </si>
-  <si>
-    <t>2N7002LT1G</t>
-  </si>
-  <si>
-    <t>863-2N7002LT1G</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:SOT-89</t>
-  </si>
-  <si>
-    <t>MCP1700T-3302E/MB</t>
-  </si>
-  <si>
-    <t>579-MCP1700T3302E/MB</t>
-  </si>
-  <si>
-    <t>MCP1700T-XXX2E</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:TQFP-48_7x7mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t>ATSAMD21G18A-AU</t>
-  </si>
-  <si>
-    <t>556-ATSAMD21G18A-AU</t>
-  </si>
-  <si>
-    <t>RocketScreamKicadLibrary:TS-018</t>
-  </si>
-  <si>
-    <t>SPNO</t>
-  </si>
-  <si>
-    <t>732-7055-1-ND</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Angled_1x02_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>CMA-4544PF-W</t>
-  </si>
-  <si>
-    <t>490-CMA-4544PF-W</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x03_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>CONN_01X03</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x04_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>CONN_01X04</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x05_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>CONN_01X05</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x06_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>CONN_01X06</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_2x05_Pitch1.27mm_SMD</t>
-  </si>
-  <si>
-    <t>CONN-HDR-2x5</t>
-  </si>
-  <si>
-    <t>649-202112100010C4LF</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SOT-23-5_HandSoldering</t>
-  </si>
-  <si>
-    <t>24AA02E64</t>
-  </si>
-  <si>
-    <t>579-24AA02E64T-I/OT</t>
-  </si>
-  <si>
-    <t>conservify:ATMEL_ATWINC1500-MR210PA</t>
-  </si>
-  <si>
-    <t>ATWINC1500-MR210PA</t>
-  </si>
-  <si>
-    <t>556-ATWINC1500MR210U</t>
-  </si>
-  <si>
-    <t>conservify:BNC</t>
-  </si>
-  <si>
-    <t>CONN_01X02</t>
-  </si>
-  <si>
-    <t>523-31-5431</t>
-  </si>
-  <si>
-    <t>conservify:BNO055</t>
-  </si>
-  <si>
-    <t>BNO055</t>
-  </si>
-  <si>
-    <t>262-BNO055</t>
-  </si>
-  <si>
-    <t>conservify:BOURNS-TC33X-2</t>
-  </si>
-  <si>
-    <t>TC33X-2-104E (100K)</t>
-  </si>
-  <si>
-    <t>652-TC33X-2-104E</t>
-  </si>
-  <si>
-    <t>conservify:DFN-8-1EP_5x2.55mm_Pitch1.25mm_98ASA002260D</t>
-  </si>
-  <si>
-    <t>MPL3115A2</t>
-  </si>
-  <si>
-    <t>841-MPL3115A2</t>
-  </si>
-  <si>
-    <t>conservify:FGPMMOPA6H</t>
-  </si>
-  <si>
-    <t>FGPMMOPA6H</t>
-  </si>
-  <si>
-    <t>conservify:MICRO-USB</t>
-  </si>
-  <si>
-    <t>conservify:MICROSD</t>
-  </si>
-  <si>
-    <t>MICROSD</t>
-  </si>
-  <si>
-    <t>3M5607CT-ND</t>
-  </si>
-  <si>
-    <t>conservify:SC70-5</t>
-  </si>
-  <si>
-    <t>MAX4466</t>
-  </si>
-  <si>
-    <t>700-MAX4466EXKT</t>
+    <t>conservify:SJ_OPEN</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>conservify:SJ_SHORTED</t>
+  </si>
+  <si>
+    <t>0R</t>
   </si>
   <si>
     <t>conservify:SSOP20-53</t>
@@ -647,24 +717,6 @@
     <t>conservify:SW_SPST_WURTH_1</t>
   </si>
   <si>
-    <t>conservify:atlas_sensor_board</t>
-  </si>
-  <si>
-    <t>ATLAS_DO</t>
-  </si>
-  <si>
-    <t>ATLAS_EC</t>
-  </si>
-  <si>
-    <t>ATLAS_ORP</t>
-  </si>
-  <si>
-    <t>ATLAS_PH</t>
-  </si>
-  <si>
-    <t>ATLAS_RTD</t>
-  </si>
-  <si>
     <t>conservify:feather</t>
   </si>
   <si>
@@ -827,7 +879,7 @@
     <t>C13</t>
   </si>
   <si>
-    <t>C8,C3,C7,C6,C4,C109,C108,C106,C102,C103</t>
+    <t>C108,C109,C106,C102,C103,C8,C3,C7,C6,C4</t>
   </si>
   <si>
     <t>C17</t>
@@ -836,7 +888,7 @@
     <t>C104,C16</t>
   </si>
   <si>
-    <t>C11,C12,C101</t>
+    <t>C101,C12,C11</t>
   </si>
   <si>
     <t>C5</t>
@@ -854,70 +906,133 @@
     <t>U101</t>
   </si>
   <si>
+    <t>J8,J9,J5,J7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R4,R103,R102,R101</t>
+  </si>
+  <si>
+    <t>R14,R15,R10</t>
+  </si>
+  <si>
+    <t>R12,R13,R11</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R5,R1,R3,R17</t>
+  </si>
+  <si>
+    <t>R2,R9</t>
+  </si>
+  <si>
+    <t>R6,R7,R27,R29,R26,R28</t>
+  </si>
+  <si>
+    <t>L4,L3</t>
+  </si>
+  <si>
+    <t>Y101,Y1</t>
+  </si>
+  <si>
+    <t>D5,D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Q1,Q3,Q2,Q4</t>
+  </si>
+  <si>
+    <t>MK1</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>U103</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>U102</t>
+  </si>
+  <si>
     <t>U104</t>
   </si>
   <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R103,R102,R101,R4</t>
-  </si>
-  <si>
-    <t>R14,R15,R10</t>
-  </si>
-  <si>
-    <t>R12,R13,R11</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17,R3,R5,R1</t>
-  </si>
-  <si>
-    <t>R2,R9</t>
-  </si>
-  <si>
-    <t>R6,R7</t>
-  </si>
-  <si>
-    <t>L4,L3</t>
-  </si>
-  <si>
-    <t>Y101,Y1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>D5,D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Q1,Q3,Q2,Q4</t>
-  </si>
-  <si>
-    <t>MK1</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>U103</t>
-  </si>
-  <si>
-    <t>RV1</t>
-  </si>
-  <si>
-    <t>U102</t>
+    <t>R24,R18,R19,R20,R22,R25,R23,R21</t>
+  </si>
+  <si>
+    <t>C13,C9,C8,C2,C7,C5,C20</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>C19,C21,C17,C6</t>
+  </si>
+  <si>
+    <t>C10,C16,C15,C1</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>M5,M2</t>
+  </si>
+  <si>
+    <t>M4,M1,M3,M6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D2,D1</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R16,R18,R2</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R6,R17,R11,R4,R5,R1</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R12,R3</t>
+  </si>
+  <si>
+    <t>R14,R15</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
   <si>
     <t>C603,C601,C604,C401,C403,C404,C203,C201,C204,C501,C503,C504,C304,C303,C301</t>
@@ -929,9 +1044,6 @@
     <t>C602,C606,C605,C402,C405,C406,C206,C205,C202,C502,C505,C506,C306,C305,C302</t>
   </si>
   <si>
-    <t>C3,C4</t>
-  </si>
-  <si>
     <t>C6,C15,C14</t>
   </si>
   <si>
@@ -956,13 +1068,10 @@
     <t>P3</t>
   </si>
   <si>
-    <t>R401,R301,R302,R504,R502,R501,R602,R202,R201,R204,R304,R404,R604,R601,R402</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R10</t>
+    <t>R401,R301,R302,R504,R502,R501,R602,R201,R202,R204,R304,R404,R604,R601,R402</t>
+  </si>
+  <si>
+    <t>R1,R12</t>
   </si>
   <si>
     <t>R6,R7,R3,R11</t>
@@ -971,31 +1080,28 @@
     <t>R4,R5,R303,R305,R505,R503,R203,R205,R405,R403,R605,R603</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>P1</t>
+    <t>Q1,Q3,Q2,Q5,Q4</t>
+  </si>
+  <si>
+    <t>U502</t>
+  </si>
+  <si>
+    <t>U202</t>
+  </si>
+  <si>
+    <t>U602</t>
+  </si>
+  <si>
+    <t>U402</t>
+  </si>
+  <si>
+    <t>U302</t>
   </si>
   <si>
     <t>J601,J401,J201,J301,J501</t>
   </si>
   <si>
     <t>U401,U201,U501,U301,U601</t>
-  </si>
-  <si>
-    <t>U502</t>
-  </si>
-  <si>
-    <t>U202</t>
-  </si>
-  <si>
-    <t>U602</t>
-  </si>
-  <si>
-    <t>U402</t>
-  </si>
-  <si>
-    <t>U302</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>3.34</v>
@@ -1849,17 +1955,11 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -1950,7 +2050,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -1959,20 +2059,18 @@
         <v>57</v>
       </c>
       <c r="D22" t="s"/>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>188.1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>178.2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>178.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1980,26 +2078,26 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>206.67</v>
+        <v>188.1</v>
       </c>
       <c r="H23" t="n">
-        <v>195.8</v>
+        <v>178.2</v>
       </c>
       <c r="I23" t="n">
-        <v>195.8</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2007,26 +2105,26 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>102.6</v>
+        <v>206.67</v>
       </c>
       <c r="H24" t="n">
-        <v>97.2</v>
+        <v>195.8</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2</v>
+        <v>195.8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2034,26 +2132,26 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>68.40000000000001</v>
+        <v>102.6</v>
       </c>
       <c r="H25" t="n">
-        <v>64.8</v>
+        <v>97.2</v>
       </c>
       <c r="I25" t="n">
-        <v>64.8</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2061,73 +2159,71 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
         <v>17.1</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>16.2</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s"/>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" t="s"/>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15</v>
       </c>
       <c r="G28" t="n">
         <v>0.1</v>
@@ -2144,7 +2240,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -2156,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
         <v>0.1</v>
@@ -2170,16 +2266,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -2199,22 +2295,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0.1</v>
@@ -2227,41 +2323,41 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s"/>
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s"/>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
@@ -2270,24 +2366,24 @@
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
-        <v>0.021</v>
+        <v>0.473</v>
       </c>
       <c r="I33" t="n">
-        <v>0.012</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
@@ -2299,7 +2395,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>0.1</v>
@@ -2316,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -2328,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>0.1</v>
@@ -2342,10 +2438,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>78</v>
@@ -2357,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0.1</v>
@@ -2371,16 +2467,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -2400,16 +2496,16 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
         <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2432,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>83</v>
@@ -2444,24 +2540,24 @@
         <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I39" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
@@ -2473,74 +2569,74 @@
         <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="H40" t="n">
-        <v>0.173</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.15</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.36</v>
+        <v>0.173</v>
       </c>
       <c r="I41" t="n">
-        <v>0.288</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>0.54</v>
       </c>
       <c r="H42" t="n">
-        <v>0.021</v>
+        <v>0.36</v>
       </c>
       <c r="I42" t="n">
-        <v>0.012</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2548,28 +2644,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.165</v>
+        <v>0.021</v>
       </c>
       <c r="I43" t="n">
-        <v>0.105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2577,13 +2673,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2592,13 +2688,13 @@
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
-        <v>0.021</v>
+        <v>0.165</v>
       </c>
       <c r="I44" t="n">
-        <v>0.012</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2606,13 +2702,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2635,28 +2731,28 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.063</v>
+        <v>0.021</v>
       </c>
       <c r="I46" t="n">
-        <v>0.033</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2664,28 +2760,28 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="H47" t="n">
-        <v>0.021</v>
+        <v>0.063</v>
       </c>
       <c r="I47" t="n">
-        <v>0.012</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2693,28 +2789,28 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>0.71</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.331</v>
+        <v>0.021</v>
       </c>
       <c r="I48" t="n">
-        <v>0.208</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2722,28 +2818,28 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="H49" t="n">
-        <v>0.207</v>
+        <v>0.331</v>
       </c>
       <c r="I49" t="n">
-        <v>0.173</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2751,19 +2847,29 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" t="s"/>
-      <c r="E50" t="s"/>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s"/>
+      <c r="G50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.173</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2778,7 +2884,7 @@
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s"/>
       <c r="H51" t="s"/>
@@ -2797,7 +2903,7 @@
       <c r="D52" t="s"/>
       <c r="E52" t="s"/>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s"/>
@@ -2805,51 +2911,39 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s"/>
       <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.012</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
+      <c r="A54" t="s"/>
       <c r="B54" t="s">
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0.1</v>
@@ -2863,16 +2957,16 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
         <v>107</v>
       </c>
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
@@ -2881,71 +2975,65 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.129</v>
+        <v>0.021</v>
       </c>
       <c r="I55" t="n">
-        <v>0.062</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.052</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="H57" t="n">
-        <v>0.065</v>
+        <v>0.129</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2953,19 +3041,19 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>0.28</v>
@@ -2979,45 +3067,45 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="H59" t="n">
-        <v>0.074</v>
+        <v>0.065</v>
       </c>
       <c r="I59" t="n">
-        <v>0.057</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -3026,100 +3114,100 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="H60" t="n">
-        <v>0.254</v>
+        <v>0.068</v>
       </c>
       <c r="I60" t="n">
-        <v>0.179</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
-        <v>0.462</v>
+        <v>0.074</v>
       </c>
       <c r="I61" t="n">
-        <v>0.363</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
         <v>119</v>
       </c>
-      <c r="C62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
       <c r="E62" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>2.59</v>
+        <v>0.33</v>
       </c>
       <c r="H62" t="n">
-        <v>1.87</v>
+        <v>0.254</v>
       </c>
       <c r="I62" t="n">
-        <v>1.1</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
         <v>122</v>
       </c>
-      <c r="C63" t="s">
-        <v>66</v>
-      </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
-        <v>0.021</v>
+        <v>0.462</v>
       </c>
       <c r="I63" t="n">
-        <v>0.012</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3127,13 +3215,13 @@
         <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -3142,13 +3230,13 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>2.59</v>
       </c>
       <c r="H64" t="n">
-        <v>0.021</v>
+        <v>1.87</v>
       </c>
       <c r="I64" t="n">
-        <v>0.012</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3156,19 +3244,19 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
         <v>0.1</v>
@@ -3182,22 +3270,22 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>0.1</v>
@@ -3214,28 +3302,28 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>1.41</v>
+        <v>0.1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.054</v>
+        <v>0.021</v>
       </c>
       <c r="I67" t="n">
-        <v>0.036</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3243,19 +3331,19 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0.1</v>
@@ -3272,28 +3360,28 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1</v>
+        <v>1.41</v>
       </c>
       <c r="H69" t="n">
-        <v>0.021</v>
+        <v>0.054</v>
       </c>
       <c r="I69" t="n">
-        <v>0.012</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3301,19 +3389,19 @@
         <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>0.1</v>
@@ -3330,28 +3418,28 @@
         <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.064</v>
+        <v>0.021</v>
       </c>
       <c r="I71" t="n">
-        <v>0.046</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3359,19 +3447,19 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
         <v>81</v>
       </c>
-      <c r="D72" t="s">
-        <v>82</v>
-      </c>
       <c r="E72" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G72" t="n">
         <v>0.1</v>
@@ -3388,13 +3476,13 @@
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -3403,13 +3491,13 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="H73" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="I73" t="n">
-        <v>0.008</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3417,28 +3505,28 @@
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006</v>
+        <v>0.021</v>
       </c>
       <c r="I74" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3446,28 +3534,28 @@
         <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.11</v>
       </c>
       <c r="H75" t="n">
-        <v>0.98</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>0.873</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3475,26 +3563,28 @@
         <v>42</v>
       </c>
       <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s">
         <v>135</v>
       </c>
-      <c r="C76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" t="s"/>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>15.16</v>
+        <v>0.15</v>
       </c>
       <c r="H76" t="n">
-        <v>15.16</v>
+        <v>0.006</v>
       </c>
       <c r="I76" t="n">
-        <v>15.16</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3502,28 +3592,28 @@
         <v>42</v>
       </c>
       <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" t="s">
         <v>138</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>139</v>
       </c>
-      <c r="D77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="s">
-        <v>141</v>
-      </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4194</v>
+        <v>0.98</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3647</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3531,28 +3621,26 @@
         <v>42</v>
       </c>
       <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" t="s"/>
+      <c r="E78" t="s">
         <v>142</v>
       </c>
-      <c r="C78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>0.49</v>
+        <v>15.16</v>
       </c>
       <c r="H78" t="n">
-        <v>0.39</v>
+        <v>15.16</v>
       </c>
       <c r="I78" t="n">
-        <v>0.367</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3560,158 +3648,158 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
         <v>145</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>146</v>
       </c>
-      <c r="D79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="H79" t="n">
-        <v>0.198</v>
+        <v>0.4194</v>
       </c>
       <c r="I79" t="n">
-        <v>0.149</v>
+        <v>0.3647</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
         <v>148</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>149</v>
       </c>
-      <c r="D80" t="s">
-        <v>150</v>
-      </c>
       <c r="E80" t="s">
         <v>13</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H80" t="n">
-        <v>0.255</v>
+        <v>0.39</v>
       </c>
       <c r="I80" t="n">
-        <v>0.197</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
         <v>151</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>152</v>
       </c>
-      <c r="D81" t="s">
-        <v>153</v>
-      </c>
       <c r="E81" t="s">
         <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>0.14</v>
+        <v>0.48</v>
       </c>
       <c r="H81" t="n">
-        <v>0.044</v>
+        <v>0.198</v>
       </c>
       <c r="I81" t="n">
-        <v>0.029</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
         <v>154</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>155</v>
       </c>
-      <c r="D82" t="s">
-        <v>156</v>
-      </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="H82" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="I82" t="n">
-        <v>0.28</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
         <v>157</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="H83" t="n">
-        <v>0.28</v>
+        <v>0.044</v>
       </c>
       <c r="I83" t="n">
-        <v>0.28</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3720,13 +3808,13 @@
         <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>3.15</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
-        <v>2.59</v>
+        <v>0.28</v>
       </c>
       <c r="I84" t="n">
-        <v>2.48</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3734,57 +3822,57 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
         <v>162</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
-        <v>0.461</v>
+        <v>0.28</v>
       </c>
       <c r="I85" t="n">
-        <v>0.364</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" t="s">
         <v>164</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>165</v>
       </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>0.82</v>
+        <v>3.15</v>
       </c>
       <c r="H86" t="n">
-        <v>0.443</v>
+        <v>2.59</v>
       </c>
       <c r="I86" t="n">
-        <v>0.379</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3792,61 +3880,89 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
         <v>167</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>168</v>
       </c>
-      <c r="D87" t="s"/>
-      <c r="E87" t="s"/>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s"/>
+      <c r="G87" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.364</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
+      <c r="A88" t="s"/>
       <c r="B88" t="s">
         <v>169</v>
       </c>
       <c r="C88" t="s">
         <v>170</v>
       </c>
-      <c r="D88" t="s"/>
-      <c r="E88" t="s"/>
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
       <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.379</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
         <v>171</v>
       </c>
-      <c r="C89" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" t="s"/>
-      <c r="E89" t="s"/>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>173</v>
@@ -3857,7 +3973,7 @@
       <c r="D90" t="s"/>
       <c r="E90" t="s"/>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s"/>
@@ -3865,190 +3981,144 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" t="s">
         <v>175</v>
       </c>
-      <c r="C91" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
+      <c r="D91" t="s"/>
+      <c r="E91" t="s"/>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.552</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" t="s"/>
+      <c r="E92" t="s"/>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s"/>
+      <c r="B93" t="s">
         <v>178</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>179</v>
       </c>
-      <c r="D92" t="s">
-        <v>180</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" t="s">
-        <v>181</v>
-      </c>
-      <c r="C93" t="s">
-        <v>182</v>
-      </c>
-      <c r="D93" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
+      <c r="D93" t="s"/>
+      <c r="E93" t="s"/>
       <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="H93" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94" t="s">
-        <v>186</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D94" t="s"/>
+      <c r="E94" t="s"/>
       <c r="F94" t="n">
-        <v>5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" t="s">
-        <v>189</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D95" t="s"/>
+      <c r="E95" t="s"/>
       <c r="F95" t="n">
         <v>1</v>
       </c>
-      <c r="G95" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="H96" t="n">
-        <v>0.215</v>
+        <v>0.552</v>
       </c>
       <c r="I96" t="n">
-        <v>0.177</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4057,127 +4127,121 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>0.27</v>
       </c>
       <c r="H97" t="n">
-        <v>2.59</v>
+        <v>0.2</v>
       </c>
       <c r="I97" t="n">
-        <v>1.85</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D98" t="s"/>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>11.35</v>
+        <v>44</v>
       </c>
       <c r="H98" t="n">
-        <v>11.35</v>
+        <v>23.4</v>
       </c>
       <c r="I98" t="n">
-        <v>11.35</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
-      </c>
-      <c r="D99" t="s">
-        <v>118</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D99" t="s"/>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>58</v>
       </c>
       <c r="H99" t="n">
-        <v>0.462</v>
+        <v>36</v>
       </c>
       <c r="I99" t="n">
-        <v>0.363</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>201</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D100" t="s"/>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>38</v>
       </c>
       <c r="H100" t="n">
-        <v>2.882</v>
+        <v>23.4</v>
       </c>
       <c r="I100" t="n">
-        <v>2.08945</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" t="s">
-        <v>204</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D101" t="s"/>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.48</v>
+        <v>38</v>
       </c>
       <c r="H101" t="n">
-        <v>0.297</v>
+        <v>23.4</v>
       </c>
       <c r="I101" t="n">
-        <v>0.281</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4185,57 +4249,55 @@
         <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" t="s">
-        <v>207</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D102" t="s"/>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>7.81</v>
+        <v>26</v>
       </c>
       <c r="H102" t="n">
-        <v>5.9</v>
+        <v>16.01</v>
       </c>
       <c r="I102" t="n">
-        <v>4.31</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.55</v>
+        <v>17.69</v>
       </c>
       <c r="H103" t="n">
-        <v>0.461</v>
+        <v>13.6</v>
       </c>
       <c r="I103" t="n">
-        <v>0.364</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4243,154 +4305,378 @@
         <v>28</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
-      </c>
-      <c r="D104" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="D104" t="s">
+        <v>202</v>
+      </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>44</v>
+        <v>3.74</v>
       </c>
       <c r="H104" t="n">
-        <v>23.4</v>
+        <v>2.78</v>
       </c>
       <c r="I104" t="n">
-        <v>18.25</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
-      </c>
-      <c r="D105" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
+        <v>205</v>
+      </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>58</v>
+        <v>10.99</v>
       </c>
       <c r="H105" t="n">
-        <v>36</v>
+        <v>7.84</v>
       </c>
       <c r="I105" t="n">
-        <v>25.2</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>38</v>
+        <v>0.28</v>
       </c>
       <c r="H106" t="n">
-        <v>23.4</v>
+        <v>0.215</v>
       </c>
       <c r="I106" t="n">
-        <v>18.25</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
+        <v>211</v>
+      </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>38</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
-        <v>23.4</v>
+        <v>2.59</v>
       </c>
       <c r="I107" t="n">
-        <v>18.25</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s"/>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>26</v>
+        <v>11.35</v>
       </c>
       <c r="H108" t="n">
-        <v>16.01</v>
+        <v>11.35</v>
       </c>
       <c r="I108" t="n">
-        <v>12.49</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.08945</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
         <v>28</v>
       </c>
-      <c r="B109" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" t="s">
-        <v>216</v>
-      </c>
-      <c r="D109" t="s"/>
-      <c r="E109" t="s"/>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s"/>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" t="s"/>
+      <c r="E113" t="s"/>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" t="s"/>
+      <c r="E114" t="s"/>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="s">
+        <v>229</v>
+      </c>
+      <c r="D115" t="s">
+        <v>230</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" t="s">
+        <v>146</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s"/>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" t="s"/>
+      <c r="E117" t="s"/>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4442,7 +4728,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -4471,16 +4757,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4500,10 +4786,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -4529,16 +4815,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4558,10 +4844,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -4587,10 +4873,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -4616,10 +4902,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -4645,10 +4931,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -4674,10 +4960,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -4703,16 +4989,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4732,13 +5018,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -4749,13 +5035,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -4766,13 +5052,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -4783,16 +5069,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -4800,22 +5086,16 @@
       <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.012</v>
-      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -4841,16 +5121,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -4870,10 +5150,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -4899,16 +5179,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -4928,10 +5208,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -4957,16 +5237,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -4986,16 +5266,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -5015,16 +5295,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -5044,16 +5324,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -5073,16 +5353,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -5102,16 +5382,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -5131,16 +5411,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -5160,16 +5440,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -5189,16 +5469,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -5218,16 +5498,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -5247,16 +5527,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -5276,16 +5556,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -5305,16 +5585,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -5334,16 +5614,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -5363,16 +5643,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -5392,19 +5672,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5421,16 +5701,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -5447,19 +5727,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -5476,16 +5756,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -5505,16 +5785,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -5534,16 +5814,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -5563,16 +5843,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -5592,16 +5872,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -5621,16 +5901,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -5650,13 +5930,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -5667,16 +5947,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -5696,16 +5976,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -5725,16 +6005,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -5754,16 +6034,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -5780,19 +6060,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -5809,19 +6089,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -5847,7 +6127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5886,7 +6166,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -5915,7 +6195,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -5944,7 +6224,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -5973,7 +6253,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -6002,7 +6282,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -6031,7 +6311,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -6060,7 +6340,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -6089,7 +6369,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -6118,7 +6398,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -6147,7 +6427,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -6176,7 +6456,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -6205,7 +6485,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -6234,7 +6514,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -6263,7 +6543,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -6278,65 +6558,53 @@
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0.1</v>
@@ -6350,22 +6618,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>0.1</v>
@@ -6379,10 +6647,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -6408,10 +6676,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>76</v>
@@ -6423,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0.1</v>
@@ -6437,13 +6705,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>79</v>
@@ -6452,7 +6720,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0.1</v>
@@ -6466,22 +6734,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -6495,10 +6763,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>83</v>
@@ -6513,21 +6781,21 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -6539,30 +6807,30 @@
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.173</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.15</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -6571,73 +6839,73 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36</v>
+        <v>0.173</v>
       </c>
       <c r="I25" t="n">
-        <v>0.288</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.288</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.012</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -6646,85 +6914,85 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="H28" t="n">
-        <v>0.021</v>
+        <v>0.129</v>
       </c>
       <c r="I28" t="n">
-        <v>0.012</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="H29" t="n">
-        <v>0.129</v>
+        <v>0.065</v>
       </c>
       <c r="I29" t="n">
-        <v>0.062</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
-        <v>0.065</v>
+        <v>0.074</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -6733,27 +7001,27 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="H31" t="n">
-        <v>0.074</v>
+        <v>0.254</v>
       </c>
       <c r="I31" t="n">
-        <v>0.057</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -6762,85 +7030,85 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="H32" t="n">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
       <c r="I32" t="n">
-        <v>0.179</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.255</v>
+        <v>0.044</v>
       </c>
       <c r="I33" t="n">
-        <v>0.197</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.044</v>
+        <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>0.029</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -6849,108 +7117,96 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>0.28</v>
+        <v>2.59</v>
       </c>
       <c r="I35" t="n">
-        <v>0.28</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>0.55</v>
       </c>
       <c r="H36" t="n">
-        <v>2.59</v>
+        <v>0.461</v>
       </c>
       <c r="I36" t="n">
-        <v>2.48</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.461</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.379</v>
-      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -6961,13 +7217,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -6978,33 +7234,45 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
+      <c r="G41" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.452</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -7013,27 +7281,27 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.73</v>
+        <v>10.99</v>
       </c>
       <c r="H42" t="n">
-        <v>0.552</v>
+        <v>7.84</v>
       </c>
       <c r="I42" t="n">
-        <v>0.452</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -7042,27 +7310,27 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>10.99</v>
+        <v>0.28</v>
       </c>
       <c r="H43" t="n">
-        <v>7.84</v>
+        <v>0.215</v>
       </c>
       <c r="I43" t="n">
-        <v>6.95</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -7071,95 +7339,115 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.28</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.215</v>
+        <v>2.59</v>
       </c>
       <c r="I44" t="n">
-        <v>0.177</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
-        <v>2.59</v>
+        <v>0.462</v>
       </c>
       <c r="I45" t="n">
-        <v>1.85</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="H46" t="n">
-        <v>0.462</v>
+        <v>0.297</v>
       </c>
       <c r="I46" t="n">
-        <v>0.363</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.48</v>
+        <v>5.81</v>
       </c>
       <c r="H47" t="n">
-        <v>0.297</v>
+        <v>3.39</v>
       </c>
       <c r="I47" t="n">
-        <v>0.281</v>
-      </c>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7172,7 +7460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7211,7 +7499,1298 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I35" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>338</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -7237,7 +8816,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -7266,7 +8845,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -7292,7 +8871,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -7321,7 +8900,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -7350,7 +8929,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -7379,7 +8958,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -7408,7 +8987,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -7437,7 +9016,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -7466,7 +9045,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -7495,7 +9074,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -7524,13 +9103,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -7547,13 +9126,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -7570,13 +9149,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -7593,13 +9172,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -7616,13 +9195,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -7639,16 +9218,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -7665,16 +9244,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -7694,22 +9273,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0.1</v>
@@ -7723,16 +9302,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -7752,16 +9331,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -7781,16 +9360,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -7810,16 +9389,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
@@ -7836,16 +9415,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -7865,16 +9444,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -7882,28 +9461,22 @@
       <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.012</v>
-      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -7923,16 +9496,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -7952,16 +9525,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -7981,22 +9554,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
         <v>0.14</v>
@@ -8010,16 +9583,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -8039,16 +9612,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -8068,13 +9641,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -8085,262 +9658,251 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
+      <c r="G34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.452</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.73</v>
+        <v>44</v>
       </c>
       <c r="H35" t="n">
-        <v>0.552</v>
+        <v>23.4</v>
       </c>
       <c r="I35" t="n">
-        <v>0.452</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.74</v>
+        <v>58</v>
       </c>
       <c r="H36" t="n">
-        <v>2.78</v>
+        <v>36</v>
       </c>
       <c r="I36" t="n">
-        <v>2.21</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>7.81</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>5.9</v>
+        <v>23.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.31</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.55</v>
+        <v>38</v>
       </c>
       <c r="H38" t="n">
-        <v>0.461</v>
+        <v>23.4</v>
       </c>
       <c r="I38" t="n">
-        <v>0.364</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H39" t="n">
-        <v>23.4</v>
+        <v>16.01</v>
       </c>
       <c r="I39" t="n">
-        <v>18.25</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>201</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>58</v>
+        <v>3.74</v>
       </c>
       <c r="H40" t="n">
-        <v>36</v>
+        <v>2.78</v>
       </c>
       <c r="I40" t="n">
-        <v>25.2</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>38</v>
+        <v>7.81</v>
       </c>
       <c r="H42" t="n">
-        <v>23.4</v>
+        <v>5.9</v>
       </c>
       <c r="I42" t="n">
-        <v>18.25</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>26</v>
+        <v>0.55</v>
       </c>
       <c r="H43" t="n">
-        <v>16.01</v>
+        <v>0.461</v>
       </c>
       <c r="I43" t="n">
-        <v>12.49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s"/>
+        <v>0.364</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
